--- a/Code/Results/Cases/Case_3_101/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_101/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.04219627037424</v>
+        <v>1.069915883399338</v>
       </c>
       <c r="D2">
-        <v>1.054806885677658</v>
+        <v>1.069537096958471</v>
       </c>
       <c r="E2">
-        <v>1.049270453137553</v>
+        <v>1.074422159387467</v>
       </c>
       <c r="F2">
-        <v>1.05682460740761</v>
+        <v>1.085481800360076</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.069057931601309</v>
+        <v>1.06020519710477</v>
       </c>
       <c r="J2">
-        <v>1.063184197708227</v>
+        <v>1.074848185507594</v>
       </c>
       <c r="K2">
-        <v>1.065552042325667</v>
+        <v>1.072239339789143</v>
       </c>
       <c r="L2">
-        <v>1.060083535139593</v>
+        <v>1.077111414247328</v>
       </c>
       <c r="M2">
-        <v>1.067545228876176</v>
+        <v>1.08814211713899</v>
       </c>
       <c r="N2">
-        <v>1.064694041217904</v>
+        <v>1.076374593217824</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.049266189521489</v>
+        <v>1.071279596921514</v>
       </c>
       <c r="D3">
-        <v>1.060488103698129</v>
+        <v>1.070633905237736</v>
       </c>
       <c r="E3">
-        <v>1.055674608898066</v>
+        <v>1.075685197148978</v>
       </c>
       <c r="F3">
-        <v>1.063782006088814</v>
+        <v>1.086884468388393</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.072301426003469</v>
+        <v>1.060734663005076</v>
       </c>
       <c r="J3">
-        <v>1.068498319976838</v>
+        <v>1.075867286217725</v>
       </c>
       <c r="K3">
-        <v>1.070401386433384</v>
+        <v>1.073151641589703</v>
       </c>
       <c r="L3">
-        <v>1.065641435439246</v>
+        <v>1.078190479479568</v>
       </c>
       <c r="M3">
-        <v>1.073658991554946</v>
+        <v>1.08936258244767</v>
       </c>
       <c r="N3">
-        <v>1.070015710149676</v>
+        <v>1.077395141167856</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.05370629216262</v>
+        <v>1.072160606606867</v>
       </c>
       <c r="D4">
-        <v>1.064057908909807</v>
+        <v>1.071342357352474</v>
       </c>
       <c r="E4">
-        <v>1.059697309180519</v>
+        <v>1.076500885043493</v>
       </c>
       <c r="F4">
-        <v>1.068156155421069</v>
+        <v>1.087790901154161</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.074326354199719</v>
+        <v>1.061075260231069</v>
       </c>
       <c r="J4">
-        <v>1.071829274978677</v>
+        <v>1.076524809762601</v>
       </c>
       <c r="K4">
-        <v>1.07344012108049</v>
+        <v>1.073740112153179</v>
       </c>
       <c r="L4">
-        <v>1.06912491737159</v>
+        <v>1.07888656478402</v>
       </c>
       <c r="M4">
-        <v>1.077496114800339</v>
+        <v>1.090150581425795</v>
       </c>
       <c r="N4">
-        <v>1.073351395489683</v>
+        <v>1.078053598471586</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.055542411153325</v>
+        <v>1.072530652811515</v>
       </c>
       <c r="D5">
-        <v>1.065534504805085</v>
+        <v>1.071639893969491</v>
       </c>
       <c r="E5">
-        <v>1.061360942237231</v>
+        <v>1.076843426870658</v>
       </c>
       <c r="F5">
-        <v>1.06996608913797</v>
+        <v>1.088171687053561</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.075160788012343</v>
+        <v>1.061217970483624</v>
       </c>
       <c r="J5">
-        <v>1.073205138137551</v>
+        <v>1.076800781628609</v>
       </c>
       <c r="K5">
-        <v>1.074695055521038</v>
+        <v>1.073987066268621</v>
       </c>
       <c r="L5">
-        <v>1.070563716460126</v>
+        <v>1.079178691228416</v>
       </c>
       <c r="M5">
-        <v>1.079082244256691</v>
+        <v>1.090481448865218</v>
       </c>
       <c r="N5">
-        <v>1.074729212532056</v>
+        <v>1.078329962249298</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.055848962659839</v>
+        <v>1.072592766001177</v>
       </c>
       <c r="D6">
-        <v>1.065781051566481</v>
+        <v>1.071689834399045</v>
       </c>
       <c r="E6">
-        <v>1.061638702006969</v>
+        <v>1.076900919412013</v>
       </c>
       <c r="F6">
-        <v>1.070268331696237</v>
+        <v>1.088235606521867</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.075299928138874</v>
+        <v>1.061241904277506</v>
       </c>
       <c r="J6">
-        <v>1.073434752493982</v>
+        <v>1.076847092200607</v>
       </c>
       <c r="K6">
-        <v>1.074904474749848</v>
+        <v>1.074028505326721</v>
       </c>
       <c r="L6">
-        <v>1.07080383017612</v>
+        <v>1.079227710909887</v>
       </c>
       <c r="M6">
-        <v>1.07934701969245</v>
+        <v>1.090536979232313</v>
       </c>
       <c r="N6">
-        <v>1.074959152967211</v>
+        <v>1.078376338587619</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.053730944140506</v>
+        <v>1.072165552472773</v>
       </c>
       <c r="D7">
-        <v>1.064077732502402</v>
+        <v>1.071346334211891</v>
       </c>
       <c r="E7">
-        <v>1.059719644915397</v>
+        <v>1.076505463564543</v>
       </c>
       <c r="F7">
-        <v>1.06818045157755</v>
+        <v>1.087795990320844</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.074337569090915</v>
+        <v>1.061077169002799</v>
       </c>
       <c r="J7">
-        <v>1.071847753840774</v>
+        <v>1.076528499078858</v>
       </c>
       <c r="K7">
-        <v>1.073456976690848</v>
+        <v>1.07374341368592</v>
       </c>
       <c r="L7">
-        <v>1.069144241770086</v>
+        <v>1.078890470181041</v>
       </c>
       <c r="M7">
-        <v>1.077517412968441</v>
+        <v>1.090155004086635</v>
       </c>
       <c r="N7">
-        <v>1.073369900593883</v>
+        <v>1.078057293027095</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.044614538153106</v>
+        <v>1.070377051061585</v>
       </c>
       <c r="D8">
-        <v>1.056749713363277</v>
+        <v>1.06990803101624</v>
       </c>
       <c r="E8">
-        <v>1.051460814214965</v>
+        <v>1.074849339714175</v>
       </c>
       <c r="F8">
-        <v>1.059203365924578</v>
+        <v>1.085956087908839</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.070169893351344</v>
+        <v>1.060384548814287</v>
       </c>
       <c r="J8">
-        <v>1.065003232797857</v>
+        <v>1.075192992053997</v>
       </c>
       <c r="K8">
-        <v>1.067212163761562</v>
+        <v>1.072548041810008</v>
       </c>
       <c r="L8">
-        <v>1.06198607441808</v>
+        <v>1.07747653593518</v>
       </c>
       <c r="M8">
-        <v>1.069636940921084</v>
+        <v>1.088554939216701</v>
       </c>
       <c r="N8">
-        <v>1.066515659546008</v>
+        <v>1.076719889429074</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.027433687490132</v>
+        <v>1.067214464288518</v>
       </c>
       <c r="D9">
-        <v>1.042957897837952</v>
+        <v>1.067363752444291</v>
       </c>
       <c r="E9">
-        <v>1.03590450087006</v>
+        <v>1.071918680411072</v>
       </c>
       <c r="F9">
-        <v>1.04232556123218</v>
+        <v>1.082704591622791</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.062219354036814</v>
+        <v>1.059148608503097</v>
       </c>
       <c r="J9">
-        <v>1.052053544142109</v>
+        <v>1.072824883158261</v>
       </c>
       <c r="K9">
-        <v>1.055390445334201</v>
+        <v>1.070427301203061</v>
       </c>
       <c r="L9">
-        <v>1.048440724391819</v>
+        <v>1.074968373076563</v>
       </c>
       <c r="M9">
-        <v>1.054767330632594</v>
+        <v>1.085721979869472</v>
       </c>
       <c r="N9">
-        <v>1.053547580847019</v>
+        <v>1.07434841754708</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.015094635517058</v>
+        <v>1.065098292635125</v>
       </c>
       <c r="D10">
-        <v>1.033071237257152</v>
+        <v>1.065660715462945</v>
       </c>
       <c r="E10">
-        <v>1.024741891760792</v>
+        <v>1.069956259612144</v>
       </c>
       <c r="F10">
-        <v>1.030235337476583</v>
+        <v>1.080530272829771</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.056446722017348</v>
+        <v>1.058314091677511</v>
       </c>
       <c r="J10">
-        <v>1.04272190581527</v>
+        <v>1.071235925650689</v>
       </c>
       <c r="K10">
-        <v>1.046867994673202</v>
+        <v>1.069003582744606</v>
       </c>
       <c r="L10">
-        <v>1.038678345314571</v>
+        <v>1.07328476765121</v>
       </c>
       <c r="M10">
-        <v>1.044079330550039</v>
+        <v>1.083823967089555</v>
       </c>
       <c r="N10">
-        <v>1.044202690523403</v>
+        <v>1.072757203537591</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.009506626359888</v>
+        <v>1.064180038121616</v>
       </c>
       <c r="D11">
-        <v>1.028599686989817</v>
+        <v>1.064921598224397</v>
       </c>
       <c r="E11">
-        <v>1.019690016094898</v>
+        <v>1.069104382406981</v>
       </c>
       <c r="F11">
-        <v>1.024768357641278</v>
+        <v>1.079587108316737</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.053818287546778</v>
+        <v>1.057950195533472</v>
       </c>
       <c r="J11">
-        <v>1.038489197470425</v>
+        <v>1.070545401980181</v>
       </c>
       <c r="K11">
-        <v>1.043001684184336</v>
+        <v>1.068384694992796</v>
       </c>
       <c r="L11">
-        <v>1.034249921181541</v>
+        <v>1.072552950187295</v>
       </c>
       <c r="M11">
-        <v>1.03923782179104</v>
+        <v>1.082999807913795</v>
       </c>
       <c r="N11">
-        <v>1.039963971247209</v>
+        <v>1.072065699244267</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.007390709203172</v>
+        <v>1.063838659042831</v>
       </c>
       <c r="D12">
-        <v>1.02690753751954</v>
+        <v>1.064646797999262</v>
       </c>
       <c r="E12">
-        <v>1.017777713180873</v>
+        <v>1.068787629715386</v>
       </c>
       <c r="F12">
-        <v>1.02269961247082</v>
+        <v>1.079236516945995</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.052820961653111</v>
+        <v>1.05781464268956</v>
       </c>
       <c r="J12">
-        <v>1.036885541421681</v>
+        <v>1.070288530367568</v>
       </c>
       <c r="K12">
-        <v>1.041536771191865</v>
+        <v>1.068154445814508</v>
       </c>
       <c r="L12">
-        <v>1.032572065943307</v>
+        <v>1.072280692955706</v>
       </c>
       <c r="M12">
-        <v>1.037404473129764</v>
+        <v>1.082693325289952</v>
       </c>
       <c r="N12">
-        <v>1.038358037822934</v>
+        <v>1.0718084628445</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.007846463852379</v>
+        <v>1.063911899637622</v>
       </c>
       <c r="D13">
-        <v>1.027271967099856</v>
+        <v>1.064705755391197</v>
       </c>
       <c r="E13">
-        <v>1.018189581574608</v>
+        <v>1.068855589173383</v>
       </c>
       <c r="F13">
-        <v>1.023145144372266</v>
+        <v>1.07931173177909</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.05303587093178</v>
+        <v>1.057843736737437</v>
       </c>
       <c r="J13">
-        <v>1.037230998977916</v>
+        <v>1.070343647503478</v>
       </c>
       <c r="K13">
-        <v>1.041852343918706</v>
+        <v>1.06820385171832</v>
       </c>
       <c r="L13">
-        <v>1.032933509499752</v>
+        <v>1.072339112507605</v>
       </c>
       <c r="M13">
-        <v>1.037799367230855</v>
+        <v>1.082759082942985</v>
       </c>
       <c r="N13">
-        <v>1.038703985968523</v>
+        <v>1.071863658253065</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.009332567303607</v>
+        <v>1.064151825751344</v>
       </c>
       <c r="D14">
-        <v>1.028460466331561</v>
+        <v>1.064898888468891</v>
       </c>
       <c r="E14">
-        <v>1.019532693798964</v>
+        <v>1.069078206251594</v>
       </c>
       <c r="F14">
-        <v>1.024598151230695</v>
+        <v>1.079558133630919</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.053736287137562</v>
+        <v>1.057938998578553</v>
       </c>
       <c r="J14">
-        <v>1.03835729626353</v>
+        <v>1.070524176684593</v>
       </c>
       <c r="K14">
-        <v>1.042881196028448</v>
+        <v>1.068365670033144</v>
       </c>
       <c r="L14">
-        <v>1.034111918019287</v>
+        <v>1.072530454079311</v>
       </c>
       <c r="M14">
-        <v>1.039087008733406</v>
+        <v>1.082974481208171</v>
       </c>
       <c r="N14">
-        <v>1.039831882725471</v>
+        <v>1.072044443806325</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.010242755997339</v>
+        <v>1.064299612380412</v>
       </c>
       <c r="D15">
-        <v>1.02918852045237</v>
+        <v>1.065017849635355</v>
       </c>
       <c r="E15">
-        <v>1.020355387956264</v>
+        <v>1.069215324375141</v>
       </c>
       <c r="F15">
-        <v>1.025488248861263</v>
+        <v>1.079709915531542</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.054164999921239</v>
+        <v>1.057997641346897</v>
       </c>
       <c r="J15">
-        <v>1.039046996119864</v>
+        <v>1.070635356099825</v>
       </c>
       <c r="K15">
-        <v>1.043511215125795</v>
+        <v>1.06846532289768</v>
       </c>
       <c r="L15">
-        <v>1.034833522539436</v>
+        <v>1.072648289084174</v>
       </c>
       <c r="M15">
-        <v>1.039875636203298</v>
+        <v>1.08310714818664</v>
       </c>
       <c r="N15">
-        <v>1.04052256203471</v>
+        <v>1.072155781109078</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.015460043932391</v>
+        <v>1.065159192707366</v>
       </c>
       <c r="D16">
-        <v>1.033363770937595</v>
+        <v>1.065709732176412</v>
       </c>
       <c r="E16">
-        <v>1.025072319265025</v>
+        <v>1.070012750325941</v>
       </c>
       <c r="F16">
-        <v>1.030593011547268</v>
+        <v>1.080592831754705</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.056618311713861</v>
+        <v>1.058338188369736</v>
       </c>
       <c r="J16">
-        <v>1.042998557091173</v>
+        <v>1.071281700398028</v>
       </c>
       <c r="K16">
-        <v>1.047120686569632</v>
+        <v>1.069044605129929</v>
       </c>
       <c r="L16">
-        <v>1.038967781876481</v>
+        <v>1.073333276336179</v>
       </c>
       <c r="M16">
-        <v>1.044395906053137</v>
+        <v>1.083878614649804</v>
       </c>
       <c r="N16">
-        <v>1.044479734675849</v>
+        <v>1.072803043290322</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.018664781250923</v>
+        <v>1.065697860701244</v>
       </c>
       <c r="D17">
-        <v>1.035930049760991</v>
+        <v>1.066143275485897</v>
       </c>
       <c r="E17">
-        <v>1.027970653331587</v>
+        <v>1.070512377994875</v>
       </c>
       <c r="F17">
-        <v>1.033730867121276</v>
+        <v>1.081146209595837</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.058121611875217</v>
+        <v>1.058551120883643</v>
       </c>
       <c r="J17">
-        <v>1.045424124208237</v>
+        <v>1.071686463292798</v>
       </c>
       <c r="K17">
-        <v>1.049336117805926</v>
+        <v>1.069407325362979</v>
       </c>
       <c r="L17">
-        <v>1.041505407417574</v>
+        <v>1.073762195351222</v>
       </c>
       <c r="M17">
-        <v>1.047172236934587</v>
+        <v>1.084361912859393</v>
       </c>
       <c r="N17">
-        <v>1.046908746376435</v>
+        <v>1.073208380994829</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.02051065547319</v>
+        <v>1.066011870112496</v>
       </c>
       <c r="D18">
-        <v>1.037408721436843</v>
+        <v>1.066395991156345</v>
       </c>
       <c r="E18">
-        <v>1.029640352485762</v>
+        <v>1.070803596715612</v>
       </c>
       <c r="F18">
-        <v>1.035538995652782</v>
+        <v>1.081468824871858</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.058986151504539</v>
+        <v>1.05867507549825</v>
       </c>
       <c r="J18">
-        <v>1.046820577798663</v>
+        <v>1.071922314330506</v>
       </c>
       <c r="K18">
-        <v>1.050611530028315</v>
+        <v>1.069618661908836</v>
       </c>
       <c r="L18">
-        <v>1.042966343669395</v>
+        <v>1.074012106315318</v>
       </c>
       <c r="M18">
-        <v>1.04877123619293</v>
+        <v>1.084643590373192</v>
       </c>
       <c r="N18">
-        <v>1.048307183091136</v>
+        <v>1.073444566968064</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.021136180589018</v>
+        <v>1.066118907789567</v>
       </c>
       <c r="D19">
-        <v>1.037909897383517</v>
+        <v>1.066482133208361</v>
       </c>
       <c r="E19">
-        <v>1.030206225283201</v>
+        <v>1.07090286009278</v>
       </c>
       <c r="F19">
-        <v>1.036151858910178</v>
+        <v>1.081578801309269</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.05927889599637</v>
+        <v>1.058717299306982</v>
       </c>
       <c r="J19">
-        <v>1.047293695153747</v>
+        <v>1.072002692846882</v>
       </c>
       <c r="K19">
-        <v>1.051043627656998</v>
+        <v>1.069690683000686</v>
       </c>
       <c r="L19">
-        <v>1.04346130222139</v>
+        <v>1.074097273844699</v>
       </c>
       <c r="M19">
-        <v>1.04931307819009</v>
+        <v>1.084739597643299</v>
       </c>
       <c r="N19">
-        <v>1.048780972327131</v>
+        <v>1.073525059631152</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.018323386671303</v>
+        <v>1.065640086069924</v>
       </c>
       <c r="D20">
-        <v>1.03565661202185</v>
+        <v>1.066096777270065</v>
       </c>
       <c r="E20">
-        <v>1.027661866616823</v>
+        <v>1.070458793994995</v>
       </c>
       <c r="F20">
-        <v>1.033396515955654</v>
+        <v>1.081086854061507</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.057961606534302</v>
+        <v>1.058528300639025</v>
       </c>
       <c r="J20">
-        <v>1.045165798320589</v>
+        <v>1.071643060963107</v>
       </c>
       <c r="K20">
-        <v>1.049100177889991</v>
+        <v>1.069368432951246</v>
       </c>
       <c r="L20">
-        <v>1.041235150468836</v>
+        <v>1.073716204398657</v>
       </c>
       <c r="M20">
-        <v>1.04687649158861</v>
+        <v>1.084310082563182</v>
       </c>
       <c r="N20">
-        <v>1.046650053636397</v>
+        <v>1.073164917028852</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.008896088854868</v>
+        <v>1.064081181788653</v>
       </c>
       <c r="D21">
-        <v>1.028111367095265</v>
+        <v>1.064842022787015</v>
       </c>
       <c r="E21">
-        <v>1.019138195318977</v>
+        <v>1.069012660166758</v>
       </c>
       <c r="F21">
-        <v>1.02417135578539</v>
+        <v>1.079485581608862</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.053530626271009</v>
+        <v>1.05791095701195</v>
       </c>
       <c r="J21">
-        <v>1.038026520117511</v>
+        <v>1.070471025885674</v>
       </c>
       <c r="K21">
-        <v>1.042579039908521</v>
+        <v>1.068318028735177</v>
       </c>
       <c r="L21">
-        <v>1.033765838894887</v>
+        <v>1.072474120610429</v>
       </c>
       <c r="M21">
-        <v>1.038708821778412</v>
+        <v>1.082911061591233</v>
       </c>
       <c r="N21">
-        <v>1.039500636839384</v>
+        <v>1.071991217527175</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.002733659319828</v>
+        <v>1.063099306318668</v>
       </c>
       <c r="D22">
-        <v>1.023185228263775</v>
+        <v>1.064051606779446</v>
       </c>
       <c r="E22">
-        <v>1.01357005099926</v>
+        <v>1.068101519899803</v>
       </c>
       <c r="F22">
-        <v>1.018148975956535</v>
+        <v>1.078477301334055</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.050622166167827</v>
+        <v>1.057520575890034</v>
       </c>
       <c r="J22">
-        <v>1.033354336330812</v>
+        <v>1.069731917379229</v>
       </c>
       <c r="K22">
-        <v>1.038310961091358</v>
+        <v>1.067655473784828</v>
       </c>
       <c r="L22">
-        <v>1.028877392065068</v>
+        <v>1.071690695938081</v>
       </c>
       <c r="M22">
-        <v>1.033369272743149</v>
+        <v>1.08202939471664</v>
       </c>
       <c r="N22">
-        <v>1.034821818015801</v>
+        <v>1.071251059401874</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.006024041591179</v>
+        <v>1.063619983551865</v>
       </c>
       <c r="D23">
-        <v>1.025814886291609</v>
+        <v>1.064470765358088</v>
       </c>
       <c r="E23">
-        <v>1.016542744182605</v>
+        <v>1.068584714785103</v>
       </c>
       <c r="F23">
-        <v>1.021363804295457</v>
+        <v>1.079011954059635</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.05217621857437</v>
+        <v>1.057727737041629</v>
       </c>
       <c r="J23">
-        <v>1.035849490992672</v>
+        <v>1.070123943529517</v>
       </c>
       <c r="K23">
-        <v>1.04059033811606</v>
+        <v>1.068006909686559</v>
       </c>
       <c r="L23">
-        <v>1.031488065683647</v>
+        <v>1.072106241075998</v>
       </c>
       <c r="M23">
-        <v>1.036220300653949</v>
+        <v>1.082496979239327</v>
       </c>
       <c r="N23">
-        <v>1.037320516083479</v>
+        <v>1.071643642274261</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.018477720227639</v>
+        <v>1.065666192514714</v>
       </c>
       <c r="D24">
-        <v>1.035780222803632</v>
+        <v>1.066117788315022</v>
       </c>
       <c r="E24">
-        <v>1.027801458252303</v>
+        <v>1.070483006932988</v>
       </c>
       <c r="F24">
-        <v>1.03354766300266</v>
+        <v>1.08111367476844</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.058033943979407</v>
+        <v>1.058538612883039</v>
       </c>
       <c r="J24">
-        <v>1.045282581149938</v>
+        <v>1.071662673349784</v>
       </c>
       <c r="K24">
-        <v>1.049206840760232</v>
+        <v>1.069386007474594</v>
       </c>
       <c r="L24">
-        <v>1.041357327139021</v>
+        <v>1.073736986565014</v>
       </c>
       <c r="M24">
-        <v>1.047010188967868</v>
+        <v>1.084333503128982</v>
       </c>
       <c r="N24">
-        <v>1.046767002310759</v>
+        <v>1.073184557267367</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.032020594708074</v>
+        <v>1.068033412717013</v>
       </c>
       <c r="D25">
-        <v>1.046637308655291</v>
+        <v>1.068022697901587</v>
       </c>
       <c r="E25">
-        <v>1.040056348228919</v>
+        <v>1.072677825326871</v>
       </c>
       <c r="F25">
-        <v>1.046826534604069</v>
+        <v>1.08354632729187</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.064352841757494</v>
+        <v>1.059469977170662</v>
       </c>
       <c r="J25">
-        <v>1.055516385958495</v>
+        <v>1.073438876136197</v>
       </c>
       <c r="K25">
-        <v>1.058552344697826</v>
+        <v>1.07097728860442</v>
       </c>
       <c r="L25">
-        <v>1.052063109631311</v>
+        <v>1.075618796426558</v>
       </c>
       <c r="M25">
-        <v>1.058738954724161</v>
+        <v>1.086455995059185</v>
       </c>
       <c r="N25">
-        <v>1.057015340295978</v>
+        <v>1.074963282465471</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_101/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_101/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.069915883399338</v>
+        <v>1.042196270374238</v>
       </c>
       <c r="D2">
-        <v>1.069537096958471</v>
+        <v>1.054806885677657</v>
       </c>
       <c r="E2">
-        <v>1.074422159387467</v>
+        <v>1.049270453137552</v>
       </c>
       <c r="F2">
-        <v>1.085481800360076</v>
+        <v>1.056824607407609</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.06020519710477</v>
+        <v>1.069057931601308</v>
       </c>
       <c r="J2">
-        <v>1.074848185507594</v>
+        <v>1.063184197708226</v>
       </c>
       <c r="K2">
-        <v>1.072239339789143</v>
+        <v>1.065552042325666</v>
       </c>
       <c r="L2">
-        <v>1.077111414247328</v>
+        <v>1.060083535139592</v>
       </c>
       <c r="M2">
-        <v>1.08814211713899</v>
+        <v>1.067545228876176</v>
       </c>
       <c r="N2">
-        <v>1.076374593217824</v>
+        <v>1.064694041217903</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.071279596921514</v>
+        <v>1.049266189521488</v>
       </c>
       <c r="D3">
-        <v>1.070633905237736</v>
+        <v>1.060488103698129</v>
       </c>
       <c r="E3">
-        <v>1.075685197148978</v>
+        <v>1.055674608898065</v>
       </c>
       <c r="F3">
-        <v>1.086884468388393</v>
+        <v>1.063782006088814</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.060734663005076</v>
+        <v>1.072301426003468</v>
       </c>
       <c r="J3">
-        <v>1.075867286217725</v>
+        <v>1.068498319976837</v>
       </c>
       <c r="K3">
-        <v>1.073151641589703</v>
+        <v>1.070401386433383</v>
       </c>
       <c r="L3">
-        <v>1.078190479479568</v>
+        <v>1.065641435439246</v>
       </c>
       <c r="M3">
-        <v>1.08936258244767</v>
+        <v>1.073658991554946</v>
       </c>
       <c r="N3">
-        <v>1.077395141167856</v>
+        <v>1.070015710149675</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.072160606606867</v>
+        <v>1.053706292162621</v>
       </c>
       <c r="D4">
-        <v>1.071342357352474</v>
+        <v>1.064057908909808</v>
       </c>
       <c r="E4">
-        <v>1.076500885043493</v>
+        <v>1.05969730918052</v>
       </c>
       <c r="F4">
-        <v>1.087790901154161</v>
+        <v>1.068156155421069</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.061075260231069</v>
+        <v>1.074326354199719</v>
       </c>
       <c r="J4">
-        <v>1.076524809762601</v>
+        <v>1.071829274978678</v>
       </c>
       <c r="K4">
-        <v>1.073740112153179</v>
+        <v>1.07344012108049</v>
       </c>
       <c r="L4">
-        <v>1.07888656478402</v>
+        <v>1.06912491737159</v>
       </c>
       <c r="M4">
-        <v>1.090150581425795</v>
+        <v>1.077496114800339</v>
       </c>
       <c r="N4">
-        <v>1.078053598471586</v>
+        <v>1.073351395489684</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.072530652811515</v>
+        <v>1.055542411153324</v>
       </c>
       <c r="D5">
-        <v>1.071639893969491</v>
+        <v>1.065534504805085</v>
       </c>
       <c r="E5">
-        <v>1.076843426870658</v>
+        <v>1.06136094223723</v>
       </c>
       <c r="F5">
-        <v>1.088171687053561</v>
+        <v>1.06996608913797</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.061217970483624</v>
+        <v>1.075160788012342</v>
       </c>
       <c r="J5">
-        <v>1.076800781628609</v>
+        <v>1.07320513813755</v>
       </c>
       <c r="K5">
-        <v>1.073987066268621</v>
+        <v>1.074695055521038</v>
       </c>
       <c r="L5">
-        <v>1.079178691228416</v>
+        <v>1.070563716460126</v>
       </c>
       <c r="M5">
-        <v>1.090481448865218</v>
+        <v>1.07908224425669</v>
       </c>
       <c r="N5">
-        <v>1.078329962249298</v>
+        <v>1.074729212532055</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.072592766001177</v>
+        <v>1.05584896265984</v>
       </c>
       <c r="D6">
-        <v>1.071689834399045</v>
+        <v>1.065781051566482</v>
       </c>
       <c r="E6">
-        <v>1.076900919412013</v>
+        <v>1.06163870200697</v>
       </c>
       <c r="F6">
-        <v>1.088235606521867</v>
+        <v>1.070268331696237</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.061241904277506</v>
+        <v>1.075299928138875</v>
       </c>
       <c r="J6">
-        <v>1.076847092200607</v>
+        <v>1.073434752493983</v>
       </c>
       <c r="K6">
-        <v>1.074028505326721</v>
+        <v>1.07490447474985</v>
       </c>
       <c r="L6">
-        <v>1.079227710909887</v>
+        <v>1.070803830176121</v>
       </c>
       <c r="M6">
-        <v>1.090536979232313</v>
+        <v>1.079347019692451</v>
       </c>
       <c r="N6">
-        <v>1.078376338587619</v>
+        <v>1.074959152967212</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.072165552472773</v>
+        <v>1.053730944140503</v>
       </c>
       <c r="D7">
-        <v>1.071346334211891</v>
+        <v>1.064077732502399</v>
       </c>
       <c r="E7">
-        <v>1.076505463564543</v>
+        <v>1.059719644915394</v>
       </c>
       <c r="F7">
-        <v>1.087795990320844</v>
+        <v>1.068180451577547</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.061077169002799</v>
+        <v>1.074337569090913</v>
       </c>
       <c r="J7">
-        <v>1.076528499078858</v>
+        <v>1.071847753840771</v>
       </c>
       <c r="K7">
-        <v>1.07374341368592</v>
+        <v>1.073456976690845</v>
       </c>
       <c r="L7">
-        <v>1.078890470181041</v>
+        <v>1.069144241770083</v>
       </c>
       <c r="M7">
-        <v>1.090155004086635</v>
+        <v>1.077517412968439</v>
       </c>
       <c r="N7">
-        <v>1.078057293027095</v>
+        <v>1.07336990059388</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.070377051061585</v>
+        <v>1.044614538153106</v>
       </c>
       <c r="D8">
-        <v>1.06990803101624</v>
+        <v>1.056749713363277</v>
       </c>
       <c r="E8">
-        <v>1.074849339714175</v>
+        <v>1.051460814214964</v>
       </c>
       <c r="F8">
-        <v>1.085956087908839</v>
+        <v>1.059203365924578</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.060384548814287</v>
+        <v>1.070169893351343</v>
       </c>
       <c r="J8">
-        <v>1.075192992053997</v>
+        <v>1.065003232797856</v>
       </c>
       <c r="K8">
-        <v>1.072548041810008</v>
+        <v>1.067212163761561</v>
       </c>
       <c r="L8">
-        <v>1.07747653593518</v>
+        <v>1.061986074418079</v>
       </c>
       <c r="M8">
-        <v>1.088554939216701</v>
+        <v>1.069636940921084</v>
       </c>
       <c r="N8">
-        <v>1.076719889429074</v>
+        <v>1.066515659546007</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.067214464288518</v>
+        <v>1.027433687490132</v>
       </c>
       <c r="D9">
-        <v>1.067363752444291</v>
+        <v>1.042957897837953</v>
       </c>
       <c r="E9">
-        <v>1.071918680411072</v>
+        <v>1.035904500870061</v>
       </c>
       <c r="F9">
-        <v>1.082704591622791</v>
+        <v>1.042325561232181</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.059148608503097</v>
+        <v>1.062219354036814</v>
       </c>
       <c r="J9">
-        <v>1.072824883158261</v>
+        <v>1.052053544142109</v>
       </c>
       <c r="K9">
-        <v>1.070427301203061</v>
+        <v>1.055390445334202</v>
       </c>
       <c r="L9">
-        <v>1.074968373076563</v>
+        <v>1.048440724391819</v>
       </c>
       <c r="M9">
-        <v>1.085721979869472</v>
+        <v>1.054767330632594</v>
       </c>
       <c r="N9">
-        <v>1.07434841754708</v>
+        <v>1.053547580847019</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.065098292635125</v>
+        <v>1.015094635517057</v>
       </c>
       <c r="D10">
-        <v>1.065660715462945</v>
+        <v>1.033071237257152</v>
       </c>
       <c r="E10">
-        <v>1.069956259612144</v>
+        <v>1.024741891760792</v>
       </c>
       <c r="F10">
-        <v>1.080530272829771</v>
+        <v>1.030235337476582</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.058314091677511</v>
+        <v>1.056446722017348</v>
       </c>
       <c r="J10">
-        <v>1.071235925650689</v>
+        <v>1.04272190581527</v>
       </c>
       <c r="K10">
-        <v>1.069003582744606</v>
+        <v>1.046867994673201</v>
       </c>
       <c r="L10">
-        <v>1.07328476765121</v>
+        <v>1.038678345314571</v>
       </c>
       <c r="M10">
-        <v>1.083823967089555</v>
+        <v>1.044079330550039</v>
       </c>
       <c r="N10">
-        <v>1.072757203537591</v>
+        <v>1.044202690523402</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.064180038121616</v>
+        <v>1.009506626359886</v>
       </c>
       <c r="D11">
-        <v>1.064921598224397</v>
+        <v>1.028599686989816</v>
       </c>
       <c r="E11">
-        <v>1.069104382406981</v>
+        <v>1.019690016094896</v>
       </c>
       <c r="F11">
-        <v>1.079587108316737</v>
+        <v>1.024768357641276</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.057950195533472</v>
+        <v>1.053818287546777</v>
       </c>
       <c r="J11">
-        <v>1.070545401980181</v>
+        <v>1.038489197470423</v>
       </c>
       <c r="K11">
-        <v>1.068384694992796</v>
+        <v>1.043001684184334</v>
       </c>
       <c r="L11">
-        <v>1.072552950187295</v>
+        <v>1.034249921181539</v>
       </c>
       <c r="M11">
-        <v>1.082999807913795</v>
+        <v>1.039237821791038</v>
       </c>
       <c r="N11">
-        <v>1.072065699244267</v>
+        <v>1.039963971247207</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C12">
-        <v>1.063838659042831</v>
+        <v>1.007390709203173</v>
       </c>
       <c r="D12">
-        <v>1.064646797999262</v>
+        <v>1.026907537519542</v>
       </c>
       <c r="E12">
-        <v>1.068787629715386</v>
+        <v>1.017777713180874</v>
       </c>
       <c r="F12">
-        <v>1.079236516945995</v>
+        <v>1.022699612470821</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.05781464268956</v>
+        <v>1.052820961653112</v>
       </c>
       <c r="J12">
-        <v>1.070288530367568</v>
+        <v>1.036885541421682</v>
       </c>
       <c r="K12">
-        <v>1.068154445814508</v>
+        <v>1.041536771191866</v>
       </c>
       <c r="L12">
-        <v>1.072280692955706</v>
+        <v>1.032572065943308</v>
       </c>
       <c r="M12">
-        <v>1.082693325289952</v>
+        <v>1.037404473129764</v>
       </c>
       <c r="N12">
-        <v>1.0718084628445</v>
+        <v>1.038358037822935</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.063911899637622</v>
+        <v>1.007846463852379</v>
       </c>
       <c r="D13">
-        <v>1.064705755391197</v>
+        <v>1.027271967099856</v>
       </c>
       <c r="E13">
-        <v>1.068855589173383</v>
+        <v>1.018189581574607</v>
       </c>
       <c r="F13">
-        <v>1.07931173177909</v>
+        <v>1.023145144372266</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.057843736737437</v>
+        <v>1.05303587093178</v>
       </c>
       <c r="J13">
-        <v>1.070343647503478</v>
+        <v>1.037230998977915</v>
       </c>
       <c r="K13">
-        <v>1.06820385171832</v>
+        <v>1.041852343918705</v>
       </c>
       <c r="L13">
-        <v>1.072339112507605</v>
+        <v>1.032933509499751</v>
       </c>
       <c r="M13">
-        <v>1.082759082942985</v>
+        <v>1.037799367230855</v>
       </c>
       <c r="N13">
-        <v>1.071863658253065</v>
+        <v>1.038703985968522</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.064151825751344</v>
+        <v>1.009332567303605</v>
       </c>
       <c r="D14">
-        <v>1.064898888468891</v>
+        <v>1.028460466331559</v>
       </c>
       <c r="E14">
-        <v>1.069078206251594</v>
+        <v>1.019532693798962</v>
       </c>
       <c r="F14">
-        <v>1.079558133630919</v>
+        <v>1.024598151230693</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.057938998578553</v>
+        <v>1.05373628713756</v>
       </c>
       <c r="J14">
-        <v>1.070524176684593</v>
+        <v>1.038357296263528</v>
       </c>
       <c r="K14">
-        <v>1.068365670033144</v>
+        <v>1.042881196028447</v>
       </c>
       <c r="L14">
-        <v>1.072530454079311</v>
+        <v>1.034111918019286</v>
       </c>
       <c r="M14">
-        <v>1.082974481208171</v>
+        <v>1.039087008733404</v>
       </c>
       <c r="N14">
-        <v>1.072044443806325</v>
+        <v>1.039831882725469</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.064299612380412</v>
+        <v>1.01024275599734</v>
       </c>
       <c r="D15">
-        <v>1.065017849635355</v>
+        <v>1.02918852045237</v>
       </c>
       <c r="E15">
-        <v>1.069215324375141</v>
+        <v>1.020355387956265</v>
       </c>
       <c r="F15">
-        <v>1.079709915531542</v>
+        <v>1.025488248861264</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.057997641346897</v>
+        <v>1.05416499992124</v>
       </c>
       <c r="J15">
-        <v>1.070635356099825</v>
+        <v>1.039046996119865</v>
       </c>
       <c r="K15">
-        <v>1.06846532289768</v>
+        <v>1.043511215125796</v>
       </c>
       <c r="L15">
-        <v>1.072648289084174</v>
+        <v>1.034833522539437</v>
       </c>
       <c r="M15">
-        <v>1.08310714818664</v>
+        <v>1.039875636203299</v>
       </c>
       <c r="N15">
-        <v>1.072155781109078</v>
+        <v>1.040522562034711</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.065159192707366</v>
+        <v>1.015460043932389</v>
       </c>
       <c r="D16">
-        <v>1.065709732176412</v>
+        <v>1.033363770937593</v>
       </c>
       <c r="E16">
-        <v>1.070012750325941</v>
+        <v>1.025072319265023</v>
       </c>
       <c r="F16">
-        <v>1.080592831754705</v>
+        <v>1.030593011547266</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.058338188369736</v>
+        <v>1.05661831171386</v>
       </c>
       <c r="J16">
-        <v>1.071281700398028</v>
+        <v>1.042998557091171</v>
       </c>
       <c r="K16">
-        <v>1.069044605129929</v>
+        <v>1.04712068656963</v>
       </c>
       <c r="L16">
-        <v>1.073333276336179</v>
+        <v>1.038967781876479</v>
       </c>
       <c r="M16">
-        <v>1.083878614649804</v>
+        <v>1.044395906053136</v>
       </c>
       <c r="N16">
-        <v>1.072803043290322</v>
+        <v>1.044479734675847</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.065697860701244</v>
+        <v>1.018664781250921</v>
       </c>
       <c r="D17">
-        <v>1.066143275485897</v>
+        <v>1.035930049760989</v>
       </c>
       <c r="E17">
-        <v>1.070512377994875</v>
+        <v>1.027970653331586</v>
       </c>
       <c r="F17">
-        <v>1.081146209595837</v>
+        <v>1.033730867121275</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.058551120883643</v>
+        <v>1.058121611875216</v>
       </c>
       <c r="J17">
-        <v>1.071686463292798</v>
+        <v>1.045424124208235</v>
       </c>
       <c r="K17">
-        <v>1.069407325362979</v>
+        <v>1.049336117805924</v>
       </c>
       <c r="L17">
-        <v>1.073762195351222</v>
+        <v>1.041505407417573</v>
       </c>
       <c r="M17">
-        <v>1.084361912859393</v>
+        <v>1.047172236934585</v>
       </c>
       <c r="N17">
-        <v>1.073208380994829</v>
+        <v>1.046908746376433</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.066011870112496</v>
+        <v>1.020510655473192</v>
       </c>
       <c r="D18">
-        <v>1.066395991156345</v>
+        <v>1.037408721436844</v>
       </c>
       <c r="E18">
-        <v>1.070803596715612</v>
+        <v>1.029640352485764</v>
       </c>
       <c r="F18">
-        <v>1.081468824871858</v>
+        <v>1.035538995652784</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.05867507549825</v>
+        <v>1.05898615150454</v>
       </c>
       <c r="J18">
-        <v>1.071922314330506</v>
+        <v>1.046820577798665</v>
       </c>
       <c r="K18">
-        <v>1.069618661908836</v>
+        <v>1.050611530028317</v>
       </c>
       <c r="L18">
-        <v>1.074012106315318</v>
+        <v>1.042966343669396</v>
       </c>
       <c r="M18">
-        <v>1.084643590373192</v>
+        <v>1.048771236192931</v>
       </c>
       <c r="N18">
-        <v>1.073444566968064</v>
+        <v>1.048307183091137</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.066118907789567</v>
+        <v>1.021136180589019</v>
       </c>
       <c r="D19">
-        <v>1.066482133208361</v>
+        <v>1.037909897383517</v>
       </c>
       <c r="E19">
-        <v>1.07090286009278</v>
+        <v>1.030206225283201</v>
       </c>
       <c r="F19">
-        <v>1.081578801309269</v>
+        <v>1.036151858910178</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.058717299306982</v>
+        <v>1.059278895996371</v>
       </c>
       <c r="J19">
-        <v>1.072002692846882</v>
+        <v>1.047293695153747</v>
       </c>
       <c r="K19">
-        <v>1.069690683000686</v>
+        <v>1.051043627656998</v>
       </c>
       <c r="L19">
-        <v>1.074097273844699</v>
+        <v>1.04346130222139</v>
       </c>
       <c r="M19">
-        <v>1.084739597643299</v>
+        <v>1.04931307819009</v>
       </c>
       <c r="N19">
-        <v>1.073525059631152</v>
+        <v>1.048780972327132</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.065640086069924</v>
+        <v>1.018323386671304</v>
       </c>
       <c r="D20">
-        <v>1.066096777270065</v>
+        <v>1.035656612021851</v>
       </c>
       <c r="E20">
-        <v>1.070458793994995</v>
+        <v>1.027661866616824</v>
       </c>
       <c r="F20">
-        <v>1.081086854061507</v>
+        <v>1.033396515955654</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.058528300639025</v>
+        <v>1.057961606534303</v>
       </c>
       <c r="J20">
-        <v>1.071643060963107</v>
+        <v>1.04516579832059</v>
       </c>
       <c r="K20">
-        <v>1.069368432951246</v>
+        <v>1.049100177889992</v>
       </c>
       <c r="L20">
-        <v>1.073716204398657</v>
+        <v>1.041235150468836</v>
       </c>
       <c r="M20">
-        <v>1.084310082563182</v>
+        <v>1.046876491588611</v>
       </c>
       <c r="N20">
-        <v>1.073164917028852</v>
+        <v>1.046650053636398</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.064081181788653</v>
+        <v>1.008896088854867</v>
       </c>
       <c r="D21">
-        <v>1.064842022787015</v>
+        <v>1.028111367095264</v>
       </c>
       <c r="E21">
-        <v>1.069012660166758</v>
+        <v>1.019138195318976</v>
       </c>
       <c r="F21">
-        <v>1.079485581608862</v>
+        <v>1.024171355785388</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.05791095701195</v>
+        <v>1.053530626271009</v>
       </c>
       <c r="J21">
-        <v>1.070471025885674</v>
+        <v>1.03802652011751</v>
       </c>
       <c r="K21">
-        <v>1.068318028735177</v>
+        <v>1.04257903990852</v>
       </c>
       <c r="L21">
-        <v>1.072474120610429</v>
+        <v>1.033765838894886</v>
       </c>
       <c r="M21">
-        <v>1.082911061591233</v>
+        <v>1.038708821778411</v>
       </c>
       <c r="N21">
-        <v>1.071991217527175</v>
+        <v>1.039500636839383</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.063099306318668</v>
+        <v>1.002733659319828</v>
       </c>
       <c r="D22">
-        <v>1.064051606779446</v>
+        <v>1.023185228263775</v>
       </c>
       <c r="E22">
-        <v>1.068101519899803</v>
+        <v>1.01357005099926</v>
       </c>
       <c r="F22">
-        <v>1.078477301334055</v>
+        <v>1.018148975956535</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.057520575890034</v>
+        <v>1.050622166167827</v>
       </c>
       <c r="J22">
-        <v>1.069731917379229</v>
+        <v>1.033354336330812</v>
       </c>
       <c r="K22">
-        <v>1.067655473784828</v>
+        <v>1.038310961091358</v>
       </c>
       <c r="L22">
-        <v>1.071690695938081</v>
+        <v>1.028877392065068</v>
       </c>
       <c r="M22">
-        <v>1.08202939471664</v>
+        <v>1.033369272743149</v>
       </c>
       <c r="N22">
-        <v>1.071251059401874</v>
+        <v>1.034821818015801</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.063619983551865</v>
+        <v>1.006024041591178</v>
       </c>
       <c r="D23">
-        <v>1.064470765358088</v>
+        <v>1.025814886291608</v>
       </c>
       <c r="E23">
-        <v>1.068584714785103</v>
+        <v>1.016542744182604</v>
       </c>
       <c r="F23">
-        <v>1.079011954059635</v>
+        <v>1.021363804295456</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.057727737041629</v>
+        <v>1.05217621857437</v>
       </c>
       <c r="J23">
-        <v>1.070123943529517</v>
+        <v>1.035849490992671</v>
       </c>
       <c r="K23">
-        <v>1.068006909686559</v>
+        <v>1.04059033811606</v>
       </c>
       <c r="L23">
-        <v>1.072106241075998</v>
+        <v>1.031488065683647</v>
       </c>
       <c r="M23">
-        <v>1.082496979239327</v>
+        <v>1.036220300653948</v>
       </c>
       <c r="N23">
-        <v>1.071643642274261</v>
+        <v>1.037320516083478</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.065666192514714</v>
+        <v>1.018477720227641</v>
       </c>
       <c r="D24">
-        <v>1.066117788315022</v>
+        <v>1.035780222803633</v>
       </c>
       <c r="E24">
-        <v>1.070483006932988</v>
+        <v>1.027801458252304</v>
       </c>
       <c r="F24">
-        <v>1.08111367476844</v>
+        <v>1.033547663002661</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.058538612883039</v>
+        <v>1.058033943979408</v>
       </c>
       <c r="J24">
-        <v>1.071662673349784</v>
+        <v>1.045282581149939</v>
       </c>
       <c r="K24">
-        <v>1.069386007474594</v>
+        <v>1.049206840760233</v>
       </c>
       <c r="L24">
-        <v>1.073736986565014</v>
+        <v>1.041357327139022</v>
       </c>
       <c r="M24">
-        <v>1.084333503128982</v>
+        <v>1.04701018896787</v>
       </c>
       <c r="N24">
-        <v>1.073184557267367</v>
+        <v>1.04676700231076</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.068033412717013</v>
+        <v>1.032020594708074</v>
       </c>
       <c r="D25">
-        <v>1.068022697901587</v>
+        <v>1.046637308655291</v>
       </c>
       <c r="E25">
-        <v>1.072677825326871</v>
+        <v>1.040056348228919</v>
       </c>
       <c r="F25">
-        <v>1.08354632729187</v>
+        <v>1.046826534604069</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.059469977170662</v>
+        <v>1.064352841757494</v>
       </c>
       <c r="J25">
-        <v>1.073438876136197</v>
+        <v>1.055516385958495</v>
       </c>
       <c r="K25">
-        <v>1.07097728860442</v>
+        <v>1.058552344697826</v>
       </c>
       <c r="L25">
-        <v>1.075618796426558</v>
+        <v>1.052063109631312</v>
       </c>
       <c r="M25">
-        <v>1.086455995059185</v>
+        <v>1.058738954724161</v>
       </c>
       <c r="N25">
-        <v>1.074963282465471</v>
+        <v>1.057015340295978</v>
       </c>
     </row>
   </sheetData>
